--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.gurulingaiah\Automation_GIT\master\src\test\resources\testdata\DataLoader\GenericUploader\NoTool\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.gurulingaiah\Automation_GIT_NEW\master\src\test\resources\testdata\DataLoader\GenericUploader\NoTool\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B02D4F2E-AB17-443C-891A-83EC663FFA15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A712E317-A674-4EBC-8BAE-D66E1595F087}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="680" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="831">
   <si>
     <t>Title</t>
   </si>
@@ -2031,9 +2031,6 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>2020-02-04T12:47:53Z</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -2561,13 +2558,35 @@
   </si>
   <si>
     <t>Bug_AutomationData</t>
+  </si>
+  <si>
+    <t>2020-12-02T16:41:53Z</t>
+  </si>
+  <si>
+    <t>55640</t>
+  </si>
+  <si>
+    <t>Bug_AutomationData_GenericUploader</t>
+  </si>
+  <si>
+    <t>41097</t>
+  </si>
+  <si>
+    <t>49323</t>
+  </si>
+  <si>
+    <t>68465</t>
+  </si>
+  <si>
+    <t>89479</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3510,11 +3529,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6328125" style="6"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="10.6328125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="59.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.36328125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.6328125" collapsed="true"/>
+    <col min="5" max="16384" style="6" width="8.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -3531,7 +3550,7 @@
         <v>552</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -3679,10 +3698,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>658</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>659</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>553</v>
@@ -3693,10 +3712,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>660</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>661</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>553</v>
@@ -3707,10 +3726,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>662</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>663</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>553</v>
@@ -3721,16 +3740,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>664</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>665</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>553</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3738,7 +3757,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C16" s="24">
         <v>43898</v>
@@ -3747,7 +3766,7 @@
         <v>553</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -3755,7 +3774,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C17" s="24">
         <v>43898</v>
@@ -3764,7 +3783,7 @@
         <v>553</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -3772,7 +3791,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C18" s="24">
         <v>43959</v>
@@ -3781,7 +3800,7 @@
         <v>553</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -3789,7 +3808,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C19" s="24">
         <v>43959</v>
@@ -3798,7 +3817,7 @@
         <v>553</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -3806,16 +3825,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>674</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -3823,16 +3842,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>677</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -3840,16 +3859,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>680</v>
-      </c>
       <c r="D22" s="25" t="s">
+        <v>676</v>
+      </c>
+      <c r="E22" s="25" t="s">
         <v>677</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3857,16 +3876,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>682</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3874,16 +3893,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>682</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -3891,16 +3910,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="71" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C25" s="74">
         <v>44113</v>
       </c>
       <c r="D25" s="73" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E25" s="73" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -3908,13 +3927,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="71" t="s">
+        <v>743</v>
+      </c>
+      <c r="C26" s="73" t="s">
         <v>744</v>
       </c>
-      <c r="C26" s="73" t="s">
-        <v>745</v>
-      </c>
       <c r="D26" s="73" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3922,13 +3941,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="71" t="s">
+        <v>748</v>
+      </c>
+      <c r="C27" s="73" t="s">
         <v>749</v>
       </c>
-      <c r="C27" s="73" t="s">
-        <v>750</v>
-      </c>
       <c r="D27" s="73" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -3936,13 +3955,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="71" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C28" s="74">
         <v>43958</v>
       </c>
       <c r="D28" s="73" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3950,13 +3969,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C29" s="81">
         <v>44363</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -3964,13 +3983,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C30" s="81">
         <v>44393</v>
       </c>
       <c r="D30" s="82" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3978,13 +3997,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C31" s="81">
         <v>44403</v>
       </c>
       <c r="D31" s="82" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3992,13 +4011,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="85" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C32" s="88">
         <v>44489</v>
       </c>
       <c r="D32" s="86" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E32" s="84"/>
     </row>
@@ -4019,12 +4038,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6328125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10" style="3" customWidth="1"/>
-    <col min="6" max="11" width="9.36328125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.36328125" style="3"/>
+    <col min="1" max="1" customWidth="true" style="1" width="39.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="27.36328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="49.6328125" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="3" width="10.0" collapsed="true"/>
+    <col min="6" max="11" customWidth="true" style="3" width="9.36328125" collapsed="true"/>
+    <col min="12" max="16384" style="3" width="9.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4107,7 +4126,7 @@
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="53" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>78</v>
@@ -4140,11 +4159,11 @@
     </row>
     <row r="4" spans="1:13" ht="25" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="70" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>78</v>
@@ -4177,10 +4196,10 @@
     </row>
     <row r="5" spans="1:13" ht="25" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
+        <v>745</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>747</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>78</v>
@@ -4261,7 +4280,7 @@
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="89" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>78</v>
@@ -4298,7 +4317,7 @@
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="57" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>78</v>
@@ -4605,7 +4624,7 @@
     </row>
     <row r="18" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B18" s="60" t="s">
         <v>557</v>
@@ -4679,7 +4698,7 @@
     </row>
     <row r="20" spans="1:13" ht="33.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B20" s="60" t="s">
         <v>559</v>
@@ -4719,10 +4738,10 @@
         <v>60</v>
       </c>
       <c r="B21" s="60" t="s">
+        <v>688</v>
+      </c>
+      <c r="C21" s="60" t="s">
         <v>689</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>690</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -4737,7 +4756,7 @@
     </row>
     <row r="22" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B22" s="60" t="s">
         <v>560</v>
@@ -4797,7 +4816,7 @@
     </row>
     <row r="24" spans="1:13" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B24" s="60" t="s">
         <v>562</v>
@@ -4836,13 +4855,13 @@
     </row>
     <row r="25" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="B25" s="60" t="s">
         <v>693</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="C25" s="60" t="s">
         <v>694</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>695</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -4857,13 +4876,13 @@
     </row>
     <row r="26" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B26" s="60" t="s">
         <v>563</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>78</v>
@@ -4896,13 +4915,13 @@
     </row>
     <row r="27" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
+        <v>696</v>
+      </c>
+      <c r="B27" s="60" t="s">
         <v>697</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="C27" s="60" t="s">
         <v>698</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>699</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -4917,13 +4936,13 @@
     </row>
     <row r="28" spans="1:13" ht="104" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B28" s="60" t="s">
         <v>564</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>78</v>
@@ -4962,7 +4981,7 @@
         <v>565</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>78</v>
@@ -5032,13 +5051,13 @@
     </row>
     <row r="31" spans="1:13" ht="52" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
+        <v>700</v>
+      </c>
+      <c r="B31" s="60" t="s">
         <v>701</v>
       </c>
-      <c r="B31" s="60" t="s">
-        <v>702</v>
-      </c>
       <c r="C31" s="60" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -5053,13 +5072,13 @@
     </row>
     <row r="32" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
+        <v>702</v>
+      </c>
+      <c r="B32" s="60" t="s">
         <v>703</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="C32" s="60" t="s">
         <v>704</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>705</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -5074,13 +5093,13 @@
     </row>
     <row r="33" spans="1:13" ht="52" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
+        <v>705</v>
+      </c>
+      <c r="B33" s="60" t="s">
         <v>706</v>
       </c>
-      <c r="B33" s="60" t="s">
-        <v>707</v>
-      </c>
       <c r="C33" s="60" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -5095,13 +5114,13 @@
     </row>
     <row r="34" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
+        <v>707</v>
+      </c>
+      <c r="B34" s="60" t="s">
         <v>708</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="C34" s="60" t="s">
         <v>709</v>
-      </c>
-      <c r="C34" s="60" t="s">
-        <v>710</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -5116,13 +5135,13 @@
     </row>
     <row r="35" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="B35" s="60" t="s">
         <v>711</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="C35" s="60" t="s">
         <v>712</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>713</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -5137,13 +5156,13 @@
     </row>
     <row r="36" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B36" s="60" t="s">
         <v>578</v>
       </c>
       <c r="C36" s="60" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -5161,10 +5180,10 @@
         <v>57</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C37" s="60" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="12" t="s">
@@ -5190,10 +5209,10 @@
         <v>12</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="12" t="s">
@@ -5225,10 +5244,10 @@
         <v>58</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="12"/>
@@ -5248,10 +5267,10 @@
         <v>19</v>
       </c>
       <c r="B40" s="75" t="s">
+        <v>751</v>
+      </c>
+      <c r="C40" s="76" t="s">
         <v>752</v>
-      </c>
-      <c r="C40" s="76" t="s">
-        <v>753</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -5273,10 +5292,10 @@
         <v>20</v>
       </c>
       <c r="B41" s="75" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C41" s="76" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -5298,10 +5317,10 @@
         <v>55</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -5321,10 +5340,10 @@
         <v>56</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -5346,10 +5365,10 @@
         <v>21</v>
       </c>
       <c r="B44" s="75" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C44" s="76" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -5371,10 +5390,10 @@
         <v>66</v>
       </c>
       <c r="B45" s="77" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C45" s="76" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -5394,10 +5413,10 @@
         <v>24</v>
       </c>
       <c r="B46" s="75" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C46" s="76" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -5417,10 +5436,10 @@
         <v>22</v>
       </c>
       <c r="B47" s="75" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C47" s="76" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -5440,10 +5459,10 @@
         <v>23</v>
       </c>
       <c r="B48" s="75" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C48" s="76" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -5463,10 +5482,10 @@
         <v>102</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C49" s="78" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -5488,10 +5507,10 @@
         <v>15</v>
       </c>
       <c r="B50" s="60" t="s">
+        <v>716</v>
+      </c>
+      <c r="C50" s="60" t="s">
         <v>717</v>
-      </c>
-      <c r="C50" s="60" t="s">
-        <v>718</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -5697,7 +5716,7 @@
         <v>575</v>
       </c>
       <c r="C56" s="60" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>78</v>
@@ -5722,7 +5741,7 @@
         <v>569</v>
       </c>
       <c r="C57" s="60" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>78</v>
@@ -5776,7 +5795,7 @@
         <v>571</v>
       </c>
       <c r="C59" s="60" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>78</v>
@@ -5909,13 +5928,13 @@
     </row>
     <row r="64" spans="1:13" ht="52" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
+        <v>720</v>
+      </c>
+      <c r="B64" s="60" t="s">
         <v>721</v>
       </c>
-      <c r="B64" s="60" t="s">
-        <v>722</v>
-      </c>
       <c r="C64" s="60" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -5936,7 +5955,7 @@
         <v>574</v>
       </c>
       <c r="C65" s="60" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>78</v>
@@ -5973,7 +5992,7 @@
         <v>579</v>
       </c>
       <c r="C66" s="90" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>78</v>
@@ -6045,7 +6064,7 @@
         <v>580</v>
       </c>
       <c r="C68" s="90" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>78</v>
@@ -6117,7 +6136,7 @@
         <v>581</v>
       </c>
       <c r="C70" s="90" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>78</v>
@@ -6186,10 +6205,10 @@
         <v>107</v>
       </c>
       <c r="B72" s="79" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C72" s="78" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -6209,10 +6228,10 @@
         <v>108</v>
       </c>
       <c r="B73" s="79" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C73" s="78" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -6232,10 +6251,10 @@
         <v>99</v>
       </c>
       <c r="B74" s="60" t="s">
+        <v>764</v>
+      </c>
+      <c r="C74" s="60" t="s">
         <v>765</v>
-      </c>
-      <c r="C74" s="60" t="s">
-        <v>766</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -6255,10 +6274,10 @@
         <v>100</v>
       </c>
       <c r="B75" s="60" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C75" s="60" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
@@ -6278,10 +6297,10 @@
         <v>101</v>
       </c>
       <c r="B76" s="60" t="s">
+        <v>767</v>
+      </c>
+      <c r="C76" s="60" t="s">
         <v>768</v>
-      </c>
-      <c r="C76" s="60" t="s">
-        <v>769</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -6301,10 +6320,10 @@
         <v>104</v>
       </c>
       <c r="B77" s="78" t="s">
+        <v>769</v>
+      </c>
+      <c r="C77" s="78" t="s">
         <v>770</v>
-      </c>
-      <c r="C77" s="78" t="s">
-        <v>771</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -6324,10 +6343,10 @@
         <v>546</v>
       </c>
       <c r="B78" s="78" t="s">
+        <v>771</v>
+      </c>
+      <c r="C78" s="78" t="s">
         <v>772</v>
-      </c>
-      <c r="C78" s="78" t="s">
-        <v>773</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -6347,10 +6366,10 @@
         <v>547</v>
       </c>
       <c r="B79" s="78" t="s">
+        <v>773</v>
+      </c>
+      <c r="C79" s="78" t="s">
         <v>774</v>
-      </c>
-      <c r="C79" s="78" t="s">
-        <v>775</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -6370,10 +6389,10 @@
         <v>548</v>
       </c>
       <c r="B80" s="78" t="s">
+        <v>775</v>
+      </c>
+      <c r="C80" s="78" t="s">
         <v>776</v>
-      </c>
-      <c r="C80" s="78" t="s">
-        <v>777</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -6393,10 +6412,10 @@
         <v>105</v>
       </c>
       <c r="B81" s="78" t="s">
+        <v>777</v>
+      </c>
+      <c r="C81" s="78" t="s">
         <v>778</v>
-      </c>
-      <c r="C81" s="78" t="s">
-        <v>779</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -6416,10 +6435,10 @@
         <v>106</v>
       </c>
       <c r="B82" s="78" t="s">
+        <v>779</v>
+      </c>
+      <c r="C82" s="60" t="s">
         <v>780</v>
-      </c>
-      <c r="C82" s="60" t="s">
-        <v>781</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -6439,10 +6458,10 @@
         <v>549</v>
       </c>
       <c r="B83" s="78" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C83" s="78" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -6462,10 +6481,10 @@
         <v>550</v>
       </c>
       <c r="B84" s="78" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C84" s="78" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -6485,10 +6504,10 @@
         <v>551</v>
       </c>
       <c r="B85" s="78" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C85" s="78" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -6509,7 +6528,7 @@
       </c>
       <c r="B86" s="57"/>
       <c r="C86" s="57" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="12" t="s">
@@ -6532,7 +6551,7 @@
         <v>579</v>
       </c>
       <c r="C87" s="60" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D87" s="83" t="s">
         <v>78</v>
@@ -6555,7 +6574,7 @@
         <v>584</v>
       </c>
       <c r="C88" s="57" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D88" s="83" t="s">
         <v>78</v>
@@ -6572,13 +6591,13 @@
     </row>
     <row r="89" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A89" s="61" t="s">
+        <v>787</v>
+      </c>
+      <c r="B89" s="57" t="s">
+        <v>787</v>
+      </c>
+      <c r="C89" s="76" t="s">
         <v>788</v>
-      </c>
-      <c r="B89" s="57" t="s">
-        <v>788</v>
-      </c>
-      <c r="C89" s="76" t="s">
-        <v>789</v>
       </c>
       <c r="D89" s="83"/>
       <c r="E89" s="2"/>
@@ -6605,7 +6624,7 @@
         <v>42</v>
       </c>
       <c r="C90" s="57" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D90" s="83"/>
       <c r="E90" s="2"/>
@@ -6951,7 +6970,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C116" s="57" t="s">
         <v>131</v>
@@ -6964,7 +6983,7 @@
         <v>655</v>
       </c>
       <c r="C117" s="57" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M117" s="50"/>
     </row>
@@ -6974,47 +6993,47 @@
         <v>654</v>
       </c>
       <c r="C118" s="57" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M118" s="50"/>
     </row>
     <row r="119" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A119" s="34"/>
       <c r="B119" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="C119" s="57" t="s">
         <v>728</v>
-      </c>
-      <c r="C119" s="57" t="s">
-        <v>729</v>
       </c>
       <c r="M119" s="50"/>
     </row>
     <row r="120" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A120" s="34"/>
       <c r="B120" s="16" t="s">
+        <v>729</v>
+      </c>
+      <c r="C120" s="57" t="s">
         <v>730</v>
-      </c>
-      <c r="C120" s="57" t="s">
-        <v>731</v>
       </c>
       <c r="M120" s="50"/>
     </row>
     <row r="121" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A121" s="34"/>
       <c r="B121" s="16" t="s">
+        <v>731</v>
+      </c>
+      <c r="C121" s="57" t="s">
         <v>732</v>
-      </c>
-      <c r="C121" s="57" t="s">
-        <v>733</v>
       </c>
       <c r="M121" s="50"/>
     </row>
     <row r="122" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A122" s="34"/>
       <c r="B122" s="16" t="s">
+        <v>733</v>
+      </c>
+      <c r="C122" s="57" t="s">
         <v>734</v>
-      </c>
-      <c r="C122" s="57" t="s">
-        <v>735</v>
       </c>
       <c r="M122" s="50"/>
     </row>
@@ -9816,7 +9835,7 @@
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" s="61" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B441" s="61"/>
       <c r="C441" s="61"/>
@@ -9825,7 +9844,7 @@
     <row r="442" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A442" s="61"/>
       <c r="B442" s="65" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C442" s="61"/>
       <c r="M442" s="50"/>
@@ -10024,7 +10043,7 @@
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" s="67" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B467" s="61"/>
       <c r="C467" s="61"/>
@@ -10033,7 +10052,7 @@
     <row r="468" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A468" s="61"/>
       <c r="B468" s="61" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C468" s="61"/>
       <c r="M468" s="50"/>
@@ -10108,62 +10127,62 @@
   <dimension ref="A1:BH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.453125" customWidth="1"/>
-    <col min="26" max="27" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.6328125" style="80" customWidth="1"/>
-    <col min="30" max="30" width="10.6328125" customWidth="1"/>
-    <col min="31" max="31" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="28.36328125" customWidth="1"/>
-    <col min="42" max="42" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="30" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="29" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="9.6328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.6328125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.36328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.54296875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.453125" collapsed="true"/>
+    <col min="15" max="16" bestFit="true" customWidth="true" width="15.54296875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="22.54296875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="21.54296875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="26" max="27" bestFit="true" customWidth="true" width="8.36328125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="80" width="10.6328125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.6328125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="17.54296875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="16.6328125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="25.54296875" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="26.08984375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="19.6328125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="28.36328125" collapsed="true"/>
+    <col min="40" max="41" customWidth="true" width="28.36328125" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="23.36328125" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="16.36328125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="21.36328125" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="15.08984375" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="23.6328125" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="14.36328125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="22.90625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="20.36328125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.35">
@@ -10285,7 +10304,7 @@
         <v>589</v>
       </c>
       <c r="AN1" s="19" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AO1" s="19" t="s">
         <v>42</v>
@@ -10347,14 +10366,14 @@
       <c r="BH1" s="20"/>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>6754</v>
+      <c r="A2" t="s">
+        <v>830</v>
       </c>
       <c r="C2" t="s">
+        <v>826</v>
+      </c>
+      <c r="M2" t="s">
         <v>824</v>
-      </c>
-      <c r="M2" t="s">
-        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -10426,7 +10445,7 @@
   <sheetData>
     <row r="1" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
@@ -10435,13 +10454,13 @@
         <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I1" t="s">
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K1" t="s">
         <v>35</v>
@@ -10449,7 +10468,7 @@
     </row>
     <row r="2" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -10458,21 +10477,21 @@
         <v>542</v>
       </c>
       <c r="H2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -10481,13 +10500,13 @@
         <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I3" t="s">
         <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K3" t="s">
         <v>40</v>
@@ -10495,27 +10514,27 @@
     </row>
     <row r="4" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
       <c r="J4" t="s">
+        <v>814</v>
+      </c>
+      <c r="K4" t="s">
         <v>815</v>
-      </c>
-      <c r="K4" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="5" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F5" t="s">
         <v>63</v>
@@ -10544,10 +10563,10 @@
         <v>47</v>
       </c>
       <c r="J6" t="s">
+        <v>816</v>
+      </c>
+      <c r="K6" t="s">
         <v>817</v>
-      </c>
-      <c r="K6" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="7" spans="5:11" x14ac:dyDescent="0.35">
@@ -10555,7 +10574,7 @@
         <v>54</v>
       </c>
       <c r="K7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="8" spans="5:11" x14ac:dyDescent="0.35">
@@ -10563,7 +10582,7 @@
         <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="9" spans="5:11" x14ac:dyDescent="0.35">
@@ -10571,7 +10590,7 @@
         <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10" spans="5:11" x14ac:dyDescent="0.35">
@@ -10579,7 +10598,7 @@
         <v>43</v>
       </c>
       <c r="K10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="11" spans="5:11" x14ac:dyDescent="0.35">
@@ -10595,7 +10614,7 @@
         <v>49</v>
       </c>
       <c r="K12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="13" spans="5:11" x14ac:dyDescent="0.35">
@@ -10665,9 +10684,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10850,27 +10872,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BCECA1-7A17-4605-AE73-73B4F527C894}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="acee2d6b-dd79-4fb3-8fb4-89e5568edfef"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10895,9 +10905,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BCECA1-7A17-4605-AE73-73B4F527C894}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="acee2d6b-dd79-4fb3-8fb4-89e5568edfef"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="800">
   <si>
     <t>Version No</t>
   </si>
@@ -2921,6 +2921,12 @@
   </si>
   <si>
     <t>24187</t>
+  </si>
+  <si>
+    <t>48834</t>
+  </si>
+  <si>
+    <t>77640</t>
   </si>
 </sst>
 </file>
@@ -8870,7 +8876,7 @@
     </row>
     <row r="2" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="802">
   <si>
     <t>Version No</t>
   </si>
@@ -2927,6 +2927,12 @@
   </si>
   <si>
     <t>77640</t>
+  </si>
+  <si>
+    <t>42423</t>
+  </si>
+  <si>
+    <t>29437</t>
   </si>
 </sst>
 </file>
@@ -8876,7 +8882,7 @@
     </row>
     <row r="2" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="803">
   <si>
     <t>Version No</t>
   </si>
@@ -2933,6 +2933,9 @@
   </si>
   <si>
     <t>29437</t>
+  </si>
+  <si>
+    <t>13227</t>
   </si>
 </sst>
 </file>
@@ -8882,7 +8885,7 @@
     </row>
     <row r="2" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="805">
   <si>
     <t>Version No</t>
   </si>
@@ -2936,6 +2936,12 @@
   </si>
   <si>
     <t>13227</t>
+  </si>
+  <si>
+    <t>10779</t>
+  </si>
+  <si>
+    <t>83175</t>
   </si>
 </sst>
 </file>
@@ -8885,7 +8891,7 @@
     </row>
     <row r="2" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="807">
   <si>
     <t>Version No</t>
   </si>
@@ -2942,6 +2942,12 @@
   </si>
   <si>
     <t>83175</t>
+  </si>
+  <si>
+    <t>43640</t>
+  </si>
+  <si>
+    <t>48288</t>
   </si>
 </sst>
 </file>
@@ -8891,7 +8897,7 @@
     </row>
     <row r="2" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="808">
   <si>
     <t>Version No</t>
   </si>
@@ -2948,6 +2948,9 @@
   </si>
   <si>
     <t>48288</t>
+  </si>
+  <si>
+    <t>60889</t>
   </si>
 </sst>
 </file>
@@ -8897,7 +8900,7 @@
     </row>
     <row r="2" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="809">
   <si>
     <t>Version No</t>
   </si>
@@ -2951,6 +2951,9 @@
   </si>
   <si>
     <t>60889</t>
+  </si>
+  <si>
+    <t>28045</t>
   </si>
 </sst>
 </file>
@@ -8900,7 +8903,7 @@
     </row>
     <row r="2" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="814">
   <si>
     <t>Version No</t>
   </si>
@@ -2954,6 +2954,21 @@
   </si>
   <si>
     <t>28045</t>
+  </si>
+  <si>
+    <t>10086</t>
+  </si>
+  <si>
+    <t>89212</t>
+  </si>
+  <si>
+    <t>86351</t>
+  </si>
+  <si>
+    <t>26974</t>
+  </si>
+  <si>
+    <t>61059</t>
   </si>
 </sst>
 </file>
@@ -8903,7 +8918,7 @@
     </row>
     <row r="2" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="815">
   <si>
     <t>Version No</t>
   </si>
@@ -2969,6 +2969,9 @@
   </si>
   <si>
     <t>61059</t>
+  </si>
+  <si>
+    <t>84054</t>
   </si>
 </sst>
 </file>
@@ -8918,7 +8921,7 @@
     </row>
     <row r="2" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="817">
   <si>
     <t>Version No</t>
   </si>
@@ -2972,6 +2972,12 @@
   </si>
   <si>
     <t>84054</t>
+  </si>
+  <si>
+    <t>64487</t>
+  </si>
+  <si>
+    <t>79546</t>
   </si>
 </sst>
 </file>
@@ -8921,7 +8927,7 @@
     </row>
     <row r="2" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="828">
   <si>
     <t>Version No</t>
   </si>
@@ -2978,6 +2978,39 @@
   </si>
   <si>
     <t>79546</t>
+  </si>
+  <si>
+    <t>43555</t>
+  </si>
+  <si>
+    <t>91443</t>
+  </si>
+  <si>
+    <t>47945</t>
+  </si>
+  <si>
+    <t>49067</t>
+  </si>
+  <si>
+    <t>21824</t>
+  </si>
+  <si>
+    <t>26053</t>
+  </si>
+  <si>
+    <t>60377</t>
+  </si>
+  <si>
+    <t>39597</t>
+  </si>
+  <si>
+    <t>67233</t>
+  </si>
+  <si>
+    <t>93251</t>
+  </si>
+  <si>
+    <t>24476</t>
   </si>
 </sst>
 </file>
@@ -8927,7 +8960,7 @@
     </row>
     <row r="2" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="829">
   <si>
     <t>Version No</t>
   </si>
@@ -3011,6 +3011,9 @@
   </si>
   <si>
     <t>24476</t>
+  </si>
+  <si>
+    <t>17336</t>
   </si>
 </sst>
 </file>
@@ -8960,7 +8963,7 @@
     </row>
     <row r="2" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Bug.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="854">
   <si>
     <t>Version No</t>
   </si>
@@ -3014,6 +3014,81 @@
   </si>
   <si>
     <t>17336</t>
+  </si>
+  <si>
+    <t>58994</t>
+  </si>
+  <si>
+    <t>82078</t>
+  </si>
+  <si>
+    <t>45932</t>
+  </si>
+  <si>
+    <t>39711</t>
+  </si>
+  <si>
+    <t>29035</t>
+  </si>
+  <si>
+    <t>44282</t>
+  </si>
+  <si>
+    <t>20836</t>
+  </si>
+  <si>
+    <t>50437</t>
+  </si>
+  <si>
+    <t>62511</t>
+  </si>
+  <si>
+    <t>20760</t>
+  </si>
+  <si>
+    <t>63022</t>
+  </si>
+  <si>
+    <t>81995</t>
+  </si>
+  <si>
+    <t>65788</t>
+  </si>
+  <si>
+    <t>18156</t>
+  </si>
+  <si>
+    <t>82884</t>
+  </si>
+  <si>
+    <t>21948</t>
+  </si>
+  <si>
+    <t>32812</t>
+  </si>
+  <si>
+    <t>99758</t>
+  </si>
+  <si>
+    <t>32489</t>
+  </si>
+  <si>
+    <t>35497</t>
+  </si>
+  <si>
+    <t>75219</t>
+  </si>
+  <si>
+    <t>29282</t>
+  </si>
+  <si>
+    <t>74356</t>
+  </si>
+  <si>
+    <t>21928</t>
+  </si>
+  <si>
+    <t>98413</t>
   </si>
 </sst>
 </file>
@@ -8963,7 +9038,7 @@
     </row>
     <row r="2" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>828</v>
+        <v>853</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
